--- a/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2_磐石组.xlsx
+++ b/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2_磐石组.xlsx
@@ -22,7 +22,7 @@
     <sheet name="05 数据修复" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.3.2 新特性|Fix Bug'!$A$1:$W$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.3.2 新特性|Fix Bug'!$A$1:$W$17</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="91">
   <si>
     <t>No</t>
   </si>
@@ -303,22 +303,11 @@
     <t>DV-2474</t>
   </si>
   <si>
-    <t>拓展管理系统一期</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>BS</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>TZGL-1</t>
-  </si>
-  <si>
     <t>【BS】报表&amp;查询优化九期</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>张浩、钱文博、孙苏文</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1340,10 +1329,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X168"/>
+  <dimension ref="A1:X167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1574,13 +1563,13 @@
         <v>69</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E4" s="53" t="s">
         <v>72</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G4" s="53" t="s">
         <v>73</v>
@@ -1594,7 +1583,7 @@
       </c>
       <c r="K4" s="53"/>
       <c r="L4" s="62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M4" s="53" t="s">
         <v>76</v>
@@ -1603,7 +1592,7 @@
         <v>77</v>
       </c>
       <c r="O4" s="53" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="P4" s="62" t="s">
         <v>79</v>
@@ -1615,7 +1604,7 @@
         <v>80</v>
       </c>
       <c r="S4" s="67" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="T4" s="59"/>
       <c r="U4" s="59"/>
@@ -1624,59 +1613,25 @@
       <c r="X4" s="69"/>
     </row>
     <row r="5" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="51">
-        <v>3</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" s="53" t="s">
-        <v>73</v>
-      </c>
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
       <c r="H5" s="54"/>
-      <c r="I5" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" s="54">
-        <v>42803</v>
-      </c>
+      <c r="I5" s="53"/>
+      <c r="J5" s="54"/>
       <c r="K5" s="53"/>
-      <c r="L5" s="62" t="s">
-        <v>91</v>
-      </c>
-      <c r="M5" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="N5" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="O5" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="P5" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q5" s="54">
-        <v>42803</v>
-      </c>
-      <c r="R5" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="S5" s="67" t="s">
-        <v>93</v>
-      </c>
+      <c r="L5" s="62"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="67"/>
       <c r="T5" s="59"/>
       <c r="U5" s="59"/>
       <c r="V5" s="66"/>
@@ -1687,7 +1642,7 @@
       <c r="A6" s="51"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
-      <c r="D6" s="52"/>
+      <c r="D6" s="55"/>
       <c r="E6" s="53"/>
       <c r="F6" s="53"/>
       <c r="G6" s="53"/>
@@ -1703,8 +1658,8 @@
       <c r="Q6" s="54"/>
       <c r="R6" s="62"/>
       <c r="S6" s="67"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
       <c r="V6" s="66"/>
       <c r="W6" s="70"/>
       <c r="X6" s="69"/>
@@ -1713,7 +1668,7 @@
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
-      <c r="D7" s="55"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="53"/>
       <c r="F7" s="53"/>
       <c r="G7" s="53"/>
@@ -1729,8 +1684,8 @@
       <c r="Q7" s="54"/>
       <c r="R7" s="62"/>
       <c r="S7" s="67"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
       <c r="V7" s="66"/>
       <c r="W7" s="70"/>
       <c r="X7" s="69"/>
@@ -1832,7 +1787,7 @@
       <c r="P11" s="62"/>
       <c r="Q11" s="54"/>
       <c r="R11" s="62"/>
-      <c r="S11" s="67"/>
+      <c r="S11" s="59"/>
       <c r="T11" s="59"/>
       <c r="U11" s="59"/>
       <c r="V11" s="66"/>
@@ -1848,7 +1803,7 @@
       <c r="F12" s="53"/>
       <c r="G12" s="53"/>
       <c r="H12" s="54"/>
-      <c r="I12" s="53"/>
+      <c r="I12" s="54"/>
       <c r="J12" s="54"/>
       <c r="K12" s="53"/>
       <c r="L12" s="62"/>
@@ -1861,7 +1816,7 @@
       <c r="S12" s="59"/>
       <c r="T12" s="59"/>
       <c r="U12" s="59"/>
-      <c r="V12" s="66"/>
+      <c r="V12" s="59"/>
       <c r="W12" s="70"/>
       <c r="X12" s="69"/>
     </row>
@@ -1902,22 +1857,22 @@
       <c r="H14" s="54"/>
       <c r="I14" s="54"/>
       <c r="J14" s="54"/>
-      <c r="K14" s="53"/>
+      <c r="K14" s="63"/>
       <c r="L14" s="62"/>
       <c r="M14" s="53"/>
       <c r="N14" s="53"/>
       <c r="O14" s="53"/>
-      <c r="P14" s="62"/>
+      <c r="P14" s="64"/>
       <c r="Q14" s="54"/>
-      <c r="R14" s="62"/>
+      <c r="R14" s="64"/>
       <c r="S14" s="59"/>
       <c r="T14" s="59"/>
       <c r="U14" s="59"/>
       <c r="V14" s="59"/>
-      <c r="W14" s="70"/>
+      <c r="W14" s="72"/>
       <c r="X14" s="69"/>
     </row>
-    <row r="15" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -1928,20 +1883,19 @@
       <c r="H15" s="54"/>
       <c r="I15" s="54"/>
       <c r="J15" s="54"/>
-      <c r="K15" s="63"/>
+      <c r="K15" s="65"/>
       <c r="L15" s="62"/>
       <c r="M15" s="53"/>
       <c r="N15" s="53"/>
       <c r="O15" s="53"/>
-      <c r="P15" s="64"/>
+      <c r="P15" s="62"/>
       <c r="Q15" s="54"/>
-      <c r="R15" s="64"/>
+      <c r="R15" s="62"/>
       <c r="S15" s="59"/>
       <c r="T15" s="59"/>
       <c r="U15" s="59"/>
       <c r="V15" s="59"/>
-      <c r="W15" s="72"/>
-      <c r="X15" s="69"/>
+      <c r="W15" s="60"/>
     </row>
     <row r="16" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="51"/>
@@ -1959,7 +1913,7 @@
       <c r="M16" s="53"/>
       <c r="N16" s="53"/>
       <c r="O16" s="53"/>
-      <c r="P16" s="62"/>
+      <c r="P16" s="59"/>
       <c r="Q16" s="54"/>
       <c r="R16" s="62"/>
       <c r="S16" s="59"/>
@@ -1984,7 +1938,7 @@
       <c r="M17" s="53"/>
       <c r="N17" s="53"/>
       <c r="O17" s="53"/>
-      <c r="P17" s="59"/>
+      <c r="P17" s="66"/>
       <c r="Q17" s="54"/>
       <c r="R17" s="62"/>
       <c r="S17" s="59"/>
@@ -1997,26 +1951,26 @@
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
+      <c r="D18" s="56"/>
       <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="53"/>
       <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
+      <c r="I18" s="53"/>
       <c r="J18" s="54"/>
-      <c r="K18" s="65"/>
+      <c r="K18" s="53"/>
       <c r="L18" s="62"/>
       <c r="M18" s="53"/>
       <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="66"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
       <c r="Q18" s="54"/>
       <c r="R18" s="62"/>
       <c r="S18" s="59"/>
       <c r="T18" s="59"/>
       <c r="U18" s="59"/>
       <c r="V18" s="59"/>
-      <c r="W18" s="60"/>
+      <c r="W18" s="70"/>
     </row>
     <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="51"/>
@@ -2087,11 +2041,11 @@
       <c r="P21" s="62"/>
       <c r="Q21" s="54"/>
       <c r="R21" s="62"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="70"/>
+      <c r="S21" s="73"/>
+      <c r="T21" s="73"/>
+      <c r="U21" s="73"/>
+      <c r="V21" s="73"/>
+      <c r="W21" s="74"/>
     </row>
     <row r="22" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="51"/>
@@ -2112,10 +2066,10 @@
       <c r="P22" s="62"/>
       <c r="Q22" s="54"/>
       <c r="R22" s="62"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="73"/>
-      <c r="U22" s="73"/>
-      <c r="V22" s="73"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="75"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="75"/>
       <c r="W22" s="74"/>
     </row>
     <row r="23" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
@@ -2130,7 +2084,7 @@
       <c r="I23" s="53"/>
       <c r="J23" s="54"/>
       <c r="K23" s="53"/>
-      <c r="L23" s="62"/>
+      <c r="L23" s="53"/>
       <c r="M23" s="53"/>
       <c r="N23" s="53"/>
       <c r="O23" s="62"/>
@@ -2140,7 +2094,7 @@
       <c r="S23" s="75"/>
       <c r="T23" s="75"/>
       <c r="U23" s="75"/>
-      <c r="V23" s="75"/>
+      <c r="V23" s="76"/>
       <c r="W23" s="74"/>
     </row>
     <row r="24" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
@@ -2165,7 +2119,7 @@
       <c r="S24" s="75"/>
       <c r="T24" s="75"/>
       <c r="U24" s="75"/>
-      <c r="V24" s="76"/>
+      <c r="V24" s="75"/>
       <c r="W24" s="74"/>
     </row>
     <row r="25" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
@@ -2180,7 +2134,7 @@
       <c r="I25" s="53"/>
       <c r="J25" s="54"/>
       <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
+      <c r="L25" s="62"/>
       <c r="M25" s="53"/>
       <c r="N25" s="53"/>
       <c r="O25" s="62"/>
@@ -2212,11 +2166,11 @@
       <c r="P26" s="62"/>
       <c r="Q26" s="54"/>
       <c r="R26" s="62"/>
-      <c r="S26" s="75"/>
-      <c r="T26" s="75"/>
-      <c r="U26" s="75"/>
-      <c r="V26" s="75"/>
-      <c r="W26" s="74"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="71"/>
+      <c r="U26" s="71"/>
+      <c r="V26" s="71"/>
+      <c r="W26" s="62"/>
     </row>
     <row r="27" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="51"/>
@@ -2237,11 +2191,11 @@
       <c r="P27" s="62"/>
       <c r="Q27" s="54"/>
       <c r="R27" s="62"/>
-      <c r="S27" s="71"/>
-      <c r="T27" s="71"/>
-      <c r="U27" s="71"/>
-      <c r="V27" s="71"/>
-      <c r="W27" s="62"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="59"/>
+      <c r="V27" s="59"/>
+      <c r="W27" s="70"/>
     </row>
     <row r="28" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="51"/>
@@ -2304,7 +2258,7 @@
       <c r="H30" s="54"/>
       <c r="I30" s="53"/>
       <c r="J30" s="54"/>
-      <c r="K30" s="53"/>
+      <c r="K30" s="57"/>
       <c r="L30" s="62"/>
       <c r="M30" s="53"/>
       <c r="N30" s="53"/>
@@ -2312,36 +2266,36 @@
       <c r="P30" s="62"/>
       <c r="Q30" s="54"/>
       <c r="R30" s="62"/>
-      <c r="S30" s="59"/>
-      <c r="T30" s="59"/>
-      <c r="U30" s="59"/>
-      <c r="V30" s="59"/>
-      <c r="W30" s="70"/>
+      <c r="S30" s="75"/>
+      <c r="T30" s="75"/>
+      <c r="U30" s="75"/>
+      <c r="V30" s="75"/>
+      <c r="W30" s="74"/>
     </row>
     <row r="31" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="51"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
-      <c r="D31" s="56"/>
+      <c r="D31" s="52"/>
       <c r="E31" s="53"/>
-      <c r="F31" s="57"/>
+      <c r="F31" s="53"/>
       <c r="G31" s="53"/>
       <c r="H31" s="54"/>
       <c r="I31" s="53"/>
       <c r="J31" s="54"/>
-      <c r="K31" s="57"/>
+      <c r="K31" s="53"/>
       <c r="L31" s="62"/>
       <c r="M31" s="53"/>
       <c r="N31" s="53"/>
-      <c r="O31" s="62"/>
+      <c r="O31" s="53"/>
       <c r="P31" s="62"/>
       <c r="Q31" s="54"/>
       <c r="R31" s="62"/>
-      <c r="S31" s="75"/>
-      <c r="T31" s="75"/>
-      <c r="U31" s="75"/>
-      <c r="V31" s="75"/>
-      <c r="W31" s="74"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="59"/>
+      <c r="V31" s="59"/>
+      <c r="W31" s="68"/>
     </row>
     <row r="32" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="51"/>
@@ -2366,7 +2320,7 @@
       <c r="T32" s="59"/>
       <c r="U32" s="59"/>
       <c r="V32" s="59"/>
-      <c r="W32" s="68"/>
+      <c r="W32" s="70"/>
     </row>
     <row r="33" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="51"/>
@@ -2597,25 +2551,25 @@
       <c r="A42" s="51"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
-      <c r="D42" s="52"/>
+      <c r="D42" s="55"/>
       <c r="E42" s="53"/>
       <c r="F42" s="53"/>
       <c r="G42" s="53"/>
       <c r="H42" s="54"/>
-      <c r="I42" s="53"/>
+      <c r="I42" s="54"/>
       <c r="J42" s="54"/>
       <c r="K42" s="53"/>
       <c r="L42" s="62"/>
-      <c r="M42" s="53"/>
+      <c r="M42" s="62"/>
       <c r="N42" s="53"/>
       <c r="O42" s="53"/>
       <c r="P42" s="62"/>
       <c r="Q42" s="54"/>
       <c r="R42" s="62"/>
-      <c r="S42" s="59"/>
-      <c r="T42" s="59"/>
-      <c r="U42" s="59"/>
-      <c r="V42" s="59"/>
+      <c r="S42" s="71"/>
+      <c r="T42" s="71"/>
+      <c r="U42" s="71"/>
+      <c r="V42" s="71"/>
       <c r="W42" s="70"/>
     </row>
     <row r="43" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
@@ -2647,14 +2601,14 @@
       <c r="A44" s="51"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
-      <c r="D44" s="55"/>
+      <c r="D44" s="58"/>
       <c r="E44" s="53"/>
       <c r="F44" s="53"/>
       <c r="G44" s="53"/>
       <c r="H44" s="54"/>
       <c r="I44" s="54"/>
       <c r="J44" s="54"/>
-      <c r="K44" s="53"/>
+      <c r="K44" s="65"/>
       <c r="L44" s="62"/>
       <c r="M44" s="62"/>
       <c r="N44" s="53"/>
@@ -2662,11 +2616,11 @@
       <c r="P44" s="62"/>
       <c r="Q44" s="54"/>
       <c r="R44" s="62"/>
-      <c r="S44" s="71"/>
-      <c r="T44" s="71"/>
-      <c r="U44" s="71"/>
-      <c r="V44" s="71"/>
-      <c r="W44" s="70"/>
+      <c r="S44" s="59"/>
+      <c r="T44" s="59"/>
+      <c r="U44" s="59"/>
+      <c r="V44" s="59"/>
+      <c r="W44" s="60"/>
     </row>
     <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="51"/>
@@ -2819,24 +2773,24 @@
       <c r="W50" s="60"/>
     </row>
     <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="51"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="53"/>
+      <c r="A51" s="59"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="59"/>
       <c r="F51" s="53"/>
       <c r="G51" s="53"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54"/>
+      <c r="H51" s="61"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="61"/>
       <c r="K51" s="65"/>
-      <c r="L51" s="62"/>
-      <c r="M51" s="62"/>
+      <c r="L51" s="59"/>
+      <c r="M51" s="59"/>
       <c r="N51" s="53"/>
-      <c r="O51" s="53"/>
-      <c r="P51" s="62"/>
-      <c r="Q51" s="54"/>
-      <c r="R51" s="62"/>
+      <c r="O51" s="59"/>
+      <c r="P51" s="59"/>
+      <c r="Q51" s="61"/>
+      <c r="R51" s="60"/>
       <c r="S51" s="59"/>
       <c r="T51" s="59"/>
       <c r="U51" s="59"/>
@@ -3225,7 +3179,7 @@
       <c r="D67" s="60"/>
       <c r="E67" s="59"/>
       <c r="F67" s="53"/>
-      <c r="G67" s="53"/>
+      <c r="G67" s="59"/>
       <c r="H67" s="61"/>
       <c r="I67" s="59"/>
       <c r="J67" s="61"/>
@@ -3374,7 +3328,7 @@
       <c r="C73" s="59"/>
       <c r="D73" s="60"/>
       <c r="E73" s="59"/>
-      <c r="F73" s="53"/>
+      <c r="F73" s="59"/>
       <c r="G73" s="59"/>
       <c r="H73" s="61"/>
       <c r="I73" s="59"/>
@@ -3468,7 +3422,7 @@
       <c r="V76" s="59"/>
       <c r="W76" s="60"/>
     </row>
-    <row r="77" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A77" s="59"/>
       <c r="B77" s="59"/>
       <c r="C77" s="59"/>
@@ -3482,7 +3436,7 @@
       <c r="K77" s="65"/>
       <c r="L77" s="59"/>
       <c r="M77" s="59"/>
-      <c r="N77" s="53"/>
+      <c r="N77" s="59"/>
       <c r="O77" s="59"/>
       <c r="P77" s="59"/>
       <c r="Q77" s="61"/>
@@ -4887,10 +4841,6 @@
       <c r="P133" s="59"/>
       <c r="Q133" s="61"/>
       <c r="R133" s="60"/>
-      <c r="S133" s="59"/>
-      <c r="T133" s="59"/>
-      <c r="U133" s="59"/>
-      <c r="V133" s="59"/>
       <c r="W133" s="60"/>
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.15">
@@ -5607,52 +5557,31 @@
       <c r="R167" s="60"/>
       <c r="W167" s="60"/>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A168" s="59"/>
-      <c r="B168" s="59"/>
-      <c r="C168" s="59"/>
-      <c r="D168" s="60"/>
-      <c r="E168" s="59"/>
-      <c r="F168" s="59"/>
-      <c r="G168" s="59"/>
-      <c r="H168" s="61"/>
-      <c r="I168" s="59"/>
-      <c r="J168" s="61"/>
-      <c r="K168" s="65"/>
-      <c r="L168" s="59"/>
-      <c r="M168" s="59"/>
-      <c r="N168" s="59"/>
-      <c r="O168" s="59"/>
-      <c r="P168" s="59"/>
-      <c r="Q168" s="61"/>
-      <c r="R168" s="60"/>
-      <c r="W168" s="60"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E3 E4:E1048576">
       <formula1>"Fix Bugs,New Features"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B3 B4:B1048576">
       <formula1>"重要,不重要"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C3 C4:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P3 P4:P1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N77">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3 N4:N76">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 I1:I1048576 V1:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G3 G4:G1048576 V1:V3 V4:V1048576 I1:I3 I4:I1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M3 M4:M1048576">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R3 R4:R1048576">
       <formula1>"能,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5660,7 +5589,6 @@
     <hyperlink ref="S2" r:id="rId1"/>
     <hyperlink ref="S3" r:id="rId2"/>
     <hyperlink ref="S4" r:id="rId3"/>
-    <hyperlink ref="S5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>

--- a/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2_磐石组.xlsx
+++ b/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2_磐石组.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>No</t>
   </si>
@@ -288,21 +288,6 @@
     <t>SDM-148</t>
   </si>
   <si>
-    <t>【星盾组】蘑菇分四期</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时器</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>张浩</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>DV-2474</t>
-  </si>
-  <si>
     <t>BS</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -320,6 +305,21 @@
   </si>
   <si>
     <t>YWBB-276</t>
+  </si>
+  <si>
+    <t>拓展管理系统一期</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>张浩、钱文博、孙苏文</t>
+  </si>
+  <si>
+    <t>谷黎娜</t>
+  </si>
+  <si>
+    <t>TZGL-1</t>
   </si>
 </sst>
 </file>
@@ -1332,7 +1332,7 @@
   <dimension ref="A1:X167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1500,16 +1500,16 @@
         <v>68</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E3" s="53" t="s">
         <v>72</v>
       </c>
       <c r="F3" s="53" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G3" s="53" t="s">
         <v>73</v>
@@ -1519,11 +1519,11 @@
         <v>73</v>
       </c>
       <c r="J3" s="54">
-        <v>42791</v>
+        <v>42803</v>
       </c>
       <c r="K3" s="53"/>
       <c r="L3" s="62" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M3" s="53" t="s">
         <v>76</v>
@@ -1532,24 +1532,24 @@
         <v>77</v>
       </c>
       <c r="O3" s="53" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="P3" s="62" t="s">
         <v>79</v>
       </c>
       <c r="Q3" s="54">
-        <v>42794</v>
+        <v>42803</v>
       </c>
       <c r="R3" s="62" t="s">
         <v>80</v>
       </c>
       <c r="S3" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="T3" s="67"/>
+        <v>91</v>
+      </c>
+      <c r="T3" s="59"/>
       <c r="U3" s="59"/>
       <c r="V3" s="66"/>
-      <c r="W3" s="68"/>
+      <c r="W3" s="70"/>
       <c r="X3" s="69"/>
     </row>
     <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -1563,13 +1563,13 @@
         <v>69</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E4" s="53" t="s">
         <v>72</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G4" s="53" t="s">
         <v>73</v>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="K4" s="53"/>
       <c r="L4" s="62" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M4" s="53" t="s">
         <v>76</v>
@@ -1592,7 +1592,7 @@
         <v>77</v>
       </c>
       <c r="O4" s="53" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P4" s="62" t="s">
         <v>79</v>
@@ -1604,7 +1604,7 @@
         <v>80</v>
       </c>
       <c r="S4" s="67" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="T4" s="59"/>
       <c r="U4" s="59"/>
@@ -1612,7 +1612,7 @@
       <c r="W4" s="70"/>
       <c r="X4" s="69"/>
     </row>
-    <row r="5" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="51"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
@@ -5560,35 +5560,35 @@
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E3 E4:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"Fix Bugs,New Features"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B3 B4:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
       <formula1>"重要,不重要"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C3 C4:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P3 P4:P1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3 N4:N76">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N76">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G3 G4:G1048576 V1:V3 V4:V1048576 I1:I3 I4:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 V1:V1048576 I1:I1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M3 M4:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R3 R4:R1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R1048576">
       <formula1>"能,否"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1"/>
-    <hyperlink ref="S3" r:id="rId2"/>
-    <hyperlink ref="S4" r:id="rId3"/>
+    <hyperlink ref="S4" r:id="rId2"/>
+    <hyperlink ref="S3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
